--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_392__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_392__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5420,22 +5420,22 @@
                   <c:v>1.852913737297058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.73978137969971</c:v>
+                  <c:v>10.73977756500244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.80691909790039</c:v>
+                  <c:v>37.80691528320312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.469313621520996</c:v>
+                  <c:v>4.469316959381104</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93.17312622070312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.064876556396484</c:v>
+                  <c:v>7.064873695373535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.001330018043518</c:v>
+                  <c:v>1.001327157020569</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.001330018043518</c:v>
@@ -5444,7 +5444,7 @@
                   <c:v>93.10504150390625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.001332998275757</c:v>
+                  <c:v>1.001330018043518</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>93.16254425048828</c:v>
@@ -5453,7 +5453,7 @@
                   <c:v>1.00019896030426</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.5633403658866882</c:v>
+                  <c:v>-0.563343346118927</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>55.12855529785156</c:v>
@@ -5471,10 +5471,10 @@
                   <c:v>93.17312622070312</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.00132417678833</c:v>
+                  <c:v>1.001321196556091</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93.10301208496094</c:v>
+                  <c:v>93.10301971435547</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.737335205078125</c:v>
@@ -5486,25 +5486,25 @@
                   <c:v>2.67586612701416</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.001388907432556</c:v>
+                  <c:v>1.001386046409607</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.344602108001709</c:v>
+                  <c:v>2.344607830047607</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.001330018043518</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.019145131111145</c:v>
+                  <c:v>1.019148111343384</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.007065176963806</c:v>
+                  <c:v>1.007068157196045</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>82.30457305908203</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.001332998275757</c:v>
+                  <c:v>1.001327157020569</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>93.17312622070312</c:v>
@@ -5513,52 +5513,52 @@
                   <c:v>92.89934539794922</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.001332998275757</c:v>
+                  <c:v>1.001330018043518</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>90.36553192138672</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.476505160331726</c:v>
+                  <c:v>1.476511120796204</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>93.17001342773438</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.585216164588928</c:v>
+                  <c:v>1.585222005844116</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>82.33268737792969</c:v>
+                  <c:v>82.33269500732422</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>77.08680725097656</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.754310846328735</c:v>
+                  <c:v>2.754307985305786</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>93.17312622070312</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.001916289329529</c:v>
+                  <c:v>1.001919150352478</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>92.04572296142578</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>93.12435150146484</c:v>
+                  <c:v>93.12435913085938</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1.001330018043518</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.00164520740509</c:v>
+                  <c:v>1.001642346382141</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>93.17312622070312</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.673465490341187</c:v>
+                  <c:v>2.673462390899658</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.001330018043518</c:v>
@@ -5567,10 +5567,10 @@
                   <c:v>93.17310333251953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>74.66371917724609</c:v>
+                  <c:v>74.66372680664062</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.10002589225769</c:v>
+                  <c:v>1.100031733512878</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>93.18575286865234</c:v>
@@ -5618,13 +5618,13 @@
                   <c:v>85.50614166259766</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.001226902008057</c:v>
+                  <c:v>1.001229882240295</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>93.17295074462891</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>93.17311096191406</c:v>
+                  <c:v>93.17311859130859</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>93.17312622070312</c:v>
@@ -5651,7 +5651,7 @@
                   <c:v>93.14905548095703</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.028951048851013</c:v>
+                  <c:v>1.028948187828064</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45.38706970214844</c:v>
@@ -5666,13 +5666,13 @@
                   <c:v>1.006072521209717</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.997779250144958</c:v>
+                  <c:v>1.997782111167908</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>93.17312622070312</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.9652963280677795</c:v>
+                  <c:v>0.9652992486953735</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>34.54057312011719</c:v>
@@ -5681,7 +5681,7 @@
                   <c:v>93.17312622070312</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.8086130619049072</c:v>
+                  <c:v>0.808616042137146</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>93.16967010498047</c:v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10.73978137969971</v>
+        <v>10.73977756500244</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>37.80691909790039</v>
+        <v>37.80691528320312</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.469313621520996</v>
+        <v>4.469316959381104</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>7.064876556396484</v>
+        <v>7.064873695373535</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.001330018043518</v>
+        <v>1.001327157020569</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.001332998275757</v>
+        <v>1.001330018043518</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.5633403658866882</v>
+        <v>-0.563343346118927</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.00132417678833</v>
+        <v>1.001321196556091</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>93.10301208496094</v>
+        <v>93.10301971435547</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.001388907432556</v>
+        <v>1.001386046409607</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.344602108001709</v>
+        <v>2.344607830047607</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.019145131111145</v>
+        <v>1.019148111343384</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.007065176963806</v>
+        <v>1.007068157196045</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.001332998275757</v>
+        <v>1.001327157020569</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.001332998275757</v>
+        <v>1.001330018043518</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.476505160331726</v>
+        <v>1.476511120796204</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.585216164588928</v>
+        <v>1.585222005844116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>82.33268737792969</v>
+        <v>82.33269500732422</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>2.754310846328735</v>
+        <v>2.754307985305786</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.001916289329529</v>
+        <v>1.001919150352478</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>97.0868</v>
       </c>
       <c r="F45">
-        <v>93.12435150146484</v>
+        <v>93.12435913085938</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.00164520740509</v>
+        <v>1.001642346382141</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2.673465490341187</v>
+        <v>2.673462390899658</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>74.66371917724609</v>
+        <v>74.66372680664062</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.10002589225769</v>
+        <v>1.100031733512878</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.001226902008057</v>
+        <v>1.001229882240295</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>93.17311096191406</v>
+        <v>93.17311859130859</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.028951048851013</v>
+        <v>1.028948187828064</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.997779250144958</v>
+        <v>1.997782111167908</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.9652963280677795</v>
+        <v>0.9652992486953735</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.8086130619049072</v>
+        <v>0.808616042137146</v>
       </c>
     </row>
     <row r="91" spans="1:6">
